--- a/phase2/schedule_25_sections.xlsx
+++ b/phase2/schedule_25_sections.xlsx
@@ -1,35 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufeiwang/Documents/GitHub/MarshallScheduling/phase2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ACC236" sheetId="1" r:id="rId1"/>
-    <sheet name="HOH1" sheetId="2" r:id="rId2"/>
-    <sheet name="HOH EDI" sheetId="3" r:id="rId3"/>
+    <sheet name="ACC236" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HOH1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="HOH EDI" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>timeslot</t>
   </si>
@@ -52,142 +40,142 @@
     <t>8:00:00</t>
   </si>
   <si>
+    <t>ACCT-547 / 14209</t>
+  </si>
+  <si>
+    <t>ACCT-549 / 14216</t>
+  </si>
+  <si>
+    <t>BUAD-310 / 14924</t>
+  </si>
+  <si>
+    <t>8:30:00</t>
+  </si>
+  <si>
+    <t>9:00:00</t>
+  </si>
+  <si>
+    <t>9:30:00</t>
+  </si>
+  <si>
+    <t>ACCT-568T / 14246</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>ACCT-585 / 14294</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>ACCT-585 / 14293</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>ACCT-557 / 14224</t>
+  </si>
+  <si>
+    <t>12:30:00</t>
+  </si>
+  <si>
+    <t>ACCT-621 / 14301</t>
+  </si>
+  <si>
+    <t>ACCT-559 / 14227</t>
+  </si>
+  <si>
+    <t>ACCT-528 / 14201</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>ACCT-581 / 14278</t>
+  </si>
+  <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>ACCT-611 / 14321</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
     <t>ACCT-574 / 14260</t>
   </si>
   <si>
-    <t>8:30:00</t>
-  </si>
-  <si>
-    <t>9:00:00</t>
-  </si>
-  <si>
-    <t>9:30:00</t>
+    <t>BUAD-310 / 14925</t>
+  </si>
+  <si>
+    <t>ACCT-557 / 14223</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>ACCT-559 / 14226</t>
+  </si>
+  <si>
+    <t>ACCT-559 / 14229</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>17:30:00</t>
+  </si>
+  <si>
+    <t>18:00:00</t>
+  </si>
+  <si>
+    <t>ACCT-561T / 14236</t>
+  </si>
+  <si>
+    <t>ACCT-546 / 14207</t>
+  </si>
+  <si>
+    <t>ACCT-546 / 14206</t>
+  </si>
+  <si>
+    <t>18:30:00</t>
+  </si>
+  <si>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>19:30:00</t>
   </si>
   <si>
     <t>ACCT-585 / 14295</t>
   </si>
   <si>
-    <t>ACCT-557 / 14223</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
-    <t>ACCT-585 / 14294</t>
-  </si>
-  <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>ACCT-546 / 14206</t>
-  </si>
-  <si>
-    <t>BUAD-310 / 14925</t>
-  </si>
-  <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>ACCT-585 / 14293</t>
-  </si>
-  <si>
-    <t>12:30:00</t>
-  </si>
-  <si>
-    <t>ACCT-561T / 14236</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
-    <t>ACCT-559 / 14226</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>14:30:00</t>
-  </si>
-  <si>
-    <t>ACCT-581 / 14278</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
-    <t>ACCT-557 / 14224</t>
-  </si>
-  <si>
-    <t>ACCT-559 / 14229</t>
-  </si>
-  <si>
-    <t>ACCT-568T / 14246</t>
-  </si>
-  <si>
-    <t>15:30:00</t>
-  </si>
-  <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
-    <t>16:30:00</t>
-  </si>
-  <si>
-    <t>ACCT-611 / 14321</t>
-  </si>
-  <si>
-    <t>ACCT-621 / 14301</t>
+    <t>BAEP-563 / 14419</t>
   </si>
   <si>
     <t>ACCT-559 / 14228</t>
-  </si>
-  <si>
-    <t>ACCT-528 / 14201</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
-    <t>17:30:00</t>
-  </si>
-  <si>
-    <t>18:00:00</t>
-  </si>
-  <si>
-    <t>ACCT-546 / 14207</t>
-  </si>
-  <si>
-    <t>ACCT-547 / 14209</t>
-  </si>
-  <si>
-    <t>ACCT-559 / 14227</t>
-  </si>
-  <si>
-    <t>BUAD-310 / 14924</t>
-  </si>
-  <si>
-    <t>18:30:00</t>
-  </si>
-  <si>
-    <t>19:00:00</t>
-  </si>
-  <si>
-    <t>19:30:00</t>
-  </si>
-  <si>
-    <t>ACCT-549 / 14216</t>
-  </si>
-  <si>
-    <t>BAEP-563 / 14419</t>
   </si>
   <si>
     <t>20:00:00</t>
@@ -208,24 +196,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -240,40 +227,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -561,22 +534,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,139 +567,159 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s"/>
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -736,296 +727,322 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" t="s"/>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="s"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E16" t="s"/>
       <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
       <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E17" t="s"/>
       <c r="F17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s"/>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
+      <c r="B20" t="s"/>
       <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
         <v>39</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
+      <c r="F20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
+      <c r="B21" t="s"/>
       <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
         <v>39</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
+      <c r="F21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
+      <c r="C22" t="s"/>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
       </c>
       <c r="F22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
+      <c r="C23" t="s"/>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
+      <c r="C24" t="s"/>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
         <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
         <v>52</v>
       </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>53</v>
       </c>
       <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>54</v>
       </c>
       <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
         <v>52</v>
       </c>
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>55</v>
       </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="s"/>
+      <c r="E28" t="s"/>
+      <c r="F28" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,173 +1062,308 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s"/>
       <c r="C19" t="s">
         <v>56</v>
       </c>
+      <c r="D19" t="s"/>
       <c r="E19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s"/>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s"/>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
+      <c r="F22" t="s"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s"/>
+      <c r="F24" t="s"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
+      <c r="F25" t="s"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="s"/>
+      <c r="E26" t="s"/>
+      <c r="F26" t="s"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
+      <c r="F27" t="s"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>55</v>
       </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="s"/>
+      <c r="E28" t="s"/>
+      <c r="F28" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,151 +1383,283 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
+      <c r="F20" t="s"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
+      <c r="F21" t="s"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
+      <c r="F22" t="s"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s"/>
+      <c r="F24" t="s"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
+      <c r="F25" t="s"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="s"/>
+      <c r="E26" t="s"/>
+      <c r="F26" t="s"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
+      <c r="F27" t="s"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>55</v>
       </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="s"/>
+      <c r="E28" t="s"/>
+      <c r="F28" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>